--- a/113 symptoms signs abnormal/RES 113 symptoms signs abnormal Findings age 2020Jul19.XLSX
+++ b/113 symptoms signs abnormal/RES 113 symptoms signs abnormal Findings age 2020Jul19.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bague\Documents\GitHub\FLHealthCHARTS\113 symptoms signs abnormal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bague\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E247E26-B2CD-464F-914D-FC045C94EAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10852710-40E5-480E-A341-4050EA9E0144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
-    <t>Recorded Deaths by Year by Age by Residence County</t>
+    <t>Resident Death Counts by Year by Age by Residence County</t>
   </si>
   <si>
     <t>113 Causes of Death=Symptoms, Signs &amp; Abnormal Findings</t>
   </si>
   <si>
-    <t>Recorded Deaths</t>
+    <t>Resident Deaths</t>
   </si>
   <si>
     <t>2020 (Provisional)</t>
@@ -1265,7 +1265,7 @@
     <col min="32" max="33" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="35" max="42" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1558,10 +1558,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6" s="2">
         <v>21</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>16</v>
       </c>
       <c r="AC6" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
       </c>
       <c r="AE6" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF6" s="2">
         <v>0</v>
@@ -1642,25 +1642,25 @@
         <v>8</v>
       </c>
       <c r="AN6" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP6" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ6" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AT6" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1835,22 +1835,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="2">
         <v>1</v>
@@ -1883,19 +1883,19 @@
         <v>5</v>
       </c>
       <c r="AA8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB8" s="2">
         <v>2</v>
       </c>
       <c r="AC8" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
       </c>
       <c r="AE8" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF8" s="2">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="2">
         <v>0</v>
@@ -1919,28 +1919,28 @@
         <v>9</v>
       </c>
       <c r="AM8" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN8" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO8" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AP8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AT8" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="AM9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="2">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="AS9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT9" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2103,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -2118,19 +2118,19 @@
         <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N10" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2151,31 +2151,31 @@
         <v>2</v>
       </c>
       <c r="W10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X10" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="2">
         <v>13</v>
       </c>
       <c r="AA10" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB10" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
       </c>
       <c r="AE10" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AF10" s="2">
         <v>1</v>
@@ -2193,34 +2193,34 @@
         <v>3</v>
       </c>
       <c r="AK10" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL10" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>27</v>
+      </c>
+      <c r="AN10" s="2">
         <v>34</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AO10" s="2">
+        <v>24</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>25</v>
+      </c>
+      <c r="AQ10" s="2">
         <v>26</v>
       </c>
-      <c r="AN10" s="2">
-        <v>27</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>16</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>11</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>14</v>
-      </c>
       <c r="AR10" s="2">
         <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="AT10" s="2">
-        <v>290</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2249,28 +2249,28 @@
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M11" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N11" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2294,28 +2294,28 @@
         <v>4</v>
       </c>
       <c r="X11" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y11" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z11" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA11" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AB11" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC11" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
       </c>
       <c r="AE11" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AF11" s="2">
         <v>1</v>
@@ -2330,37 +2330,37 @@
         <v>4</v>
       </c>
       <c r="AJ11" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK11" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL11" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>50</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>36</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="2">
         <v>49</v>
       </c>
-      <c r="AM11" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>30</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>16</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>13</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>15</v>
-      </c>
       <c r="AR11" s="2">
         <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="AT11" s="2">
-        <v>376</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="2">
         <v>0</v>
@@ -2497,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="AS12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2535,22 +2535,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N13" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2583,19 +2583,19 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="2">
         <v>14</v>
       </c>
       <c r="AC13" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AF13" s="2">
         <v>0</v>
@@ -2619,28 +2619,28 @@
         <v>1</v>
       </c>
       <c r="AM13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO13" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AP13" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AQ13" s="2">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AR13" s="2">
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AT13" s="2">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2678,19 +2678,19 @@
         <v>6</v>
       </c>
       <c r="L14" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2756,31 +2756,31 @@
         <v>4</v>
       </c>
       <c r="AL14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP14" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AQ14" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AR14" s="2">
         <v>0</v>
       </c>
       <c r="AS14" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AT14" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15" s="2">
         <v>3</v>
@@ -2824,13 +2824,13 @@
         <v>3</v>
       </c>
       <c r="N15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="AA15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB15" s="2">
         <v>3</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF15" s="2">
         <v>0</v>
@@ -2890,37 +2890,37 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM15" s="2">
+        <v>7</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP15" s="2">
         <v>6</v>
       </c>
-      <c r="AN15" s="2">
+      <c r="AQ15" s="2">
         <v>6</v>
       </c>
-      <c r="AO15" s="2">
-        <v>2</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>3</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>4</v>
-      </c>
       <c r="AR15" s="2">
         <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AT15" s="2">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -2958,19 +2958,19 @@
         <v>4</v>
       </c>
       <c r="L16" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M16" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N16" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>10</v>
       </c>
       <c r="Z16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2">
         <v>4</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AF16" s="2">
         <v>0</v>
@@ -3030,37 +3030,37 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK16" s="2">
         <v>11</v>
       </c>
       <c r="AL16" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AM16" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN16" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AO16" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AP16" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AQ16" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
       </c>
       <c r="AS16" s="2">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="AT16" s="2">
-        <v>111</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="AP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="2">
         <v>3</v>
@@ -3197,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="AS17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT17" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -3226,31 +3226,31 @@
         <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2">
         <v>9</v>
       </c>
       <c r="J18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O18" s="2">
         <v>1</v>
       </c>
       <c r="P18" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="V18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W18" s="2">
         <v>11</v>
       </c>
       <c r="X18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y18" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z18" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA18" s="2">
         <v>13</v>
       </c>
       <c r="AB18" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC18" s="2">
         <v>19</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AF18" s="2">
         <v>0</v>
@@ -3313,34 +3313,34 @@
         <v>10</v>
       </c>
       <c r="AK18" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AL18" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM18" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AN18" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AO18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AP18" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AQ18" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AR18" s="2">
         <v>2</v>
       </c>
       <c r="AS18" s="2">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="AT18" s="2">
-        <v>376</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="AT19" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="AN20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" s="2">
         <v>2</v>
@@ -3617,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="AS20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT20" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -3649,28 +3649,28 @@
         <v>2</v>
       </c>
       <c r="I21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L21" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M21" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N21" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -3688,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y21" s="2">
         <v>4</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AF21" s="2">
         <v>4</v>
@@ -3730,37 +3730,37 @@
         <v>1</v>
       </c>
       <c r="AJ21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL21" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AM21" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AN21" s="2">
+        <v>33</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>16</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ21" s="2">
         <v>19</v>
       </c>
-      <c r="AO21" s="2">
-        <v>9</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>9</v>
-      </c>
-      <c r="AQ21" s="2">
-        <v>10</v>
-      </c>
       <c r="AR21" s="2">
         <v>0</v>
       </c>
       <c r="AS21" s="2">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="AT21" s="2">
-        <v>267</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -3786,31 +3786,31 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="2">
         <v>4</v>
       </c>
       <c r="K22" s="2">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2">
         <v>7</v>
       </c>
-      <c r="L22" s="2">
-        <v>6</v>
-      </c>
       <c r="M22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
@@ -3843,10 +3843,10 @@
         <v>10</v>
       </c>
       <c r="AA22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="2">
         <v>13</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF22" s="2">
         <v>1</v>
@@ -3870,37 +3870,37 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>7</v>
+      </c>
+      <c r="AP22" s="2">
         <v>12</v>
       </c>
-      <c r="AM22" s="2">
-        <v>16</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>9</v>
-      </c>
-      <c r="AO22" s="2">
+      <c r="AQ22" s="2">
         <v>5</v>
       </c>
-      <c r="AP22" s="2">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>3</v>
-      </c>
       <c r="AR22" s="2">
         <v>0</v>
       </c>
       <c r="AS22" s="2">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AT22" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -3926,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -3941,16 +3941,16 @@
         <v>3</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="2">
         <v>2</v>
@@ -3989,58 +3989,58 @@
         <v>1</v>
       </c>
       <c r="AC23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD23" s="2">
         <v>0</v>
       </c>
       <c r="AE23" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL23" s="2">
         <v>6</v>
       </c>
-      <c r="AF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>2</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>3</v>
-      </c>
       <c r="AM23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP23" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AQ23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR23" s="2">
         <v>0</v>
       </c>
       <c r="AS23" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AT23" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="2">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF24" s="2">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -4305,22 +4305,22 @@
         <v>3</v>
       </c>
       <c r="AO25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR25" s="2">
         <v>0</v>
       </c>
       <c r="AS25" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT25" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -4638,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>2</v>
       </c>
       <c r="AB28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC28" s="2">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF28" s="2">
         <v>0</v>
@@ -4725,22 +4725,22 @@
         <v>0</v>
       </c>
       <c r="AO28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR28" s="2">
         <v>0</v>
       </c>
       <c r="AS28" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AT28" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -4853,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM29" s="2">
         <v>1</v>
@@ -4865,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="AO29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="AS29" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AT29" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="AO30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30" s="2">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AS30" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT30" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -5142,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="AN31" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31" s="2">
         <v>1</v>
@@ -5157,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="AS31" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT31" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -5198,19 +5198,19 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M32" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N32" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z32" s="2">
         <v>3</v>
@@ -5246,7 +5246,7 @@
         <v>17</v>
       </c>
       <c r="AB32" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC32" s="2">
         <v>72</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF32" s="2">
         <v>0</v>
@@ -5279,28 +5279,28 @@
         <v>3</v>
       </c>
       <c r="AM32" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN32" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO32" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AP32" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ32" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AR32" s="2">
         <v>0</v>
       </c>
       <c r="AS32" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AT32" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="2">
         <v>1</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF33" s="2">
         <v>0</v>
@@ -5413,34 +5413,34 @@
         <v>3</v>
       </c>
       <c r="AK33" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL33" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM33" s="2">
         <v>6</v>
       </c>
       <c r="AN33" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO33" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP33" s="2">
         <v>4</v>
       </c>
-      <c r="AP33" s="2">
-        <v>1</v>
-      </c>
       <c r="AQ33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR33" s="2">
         <v>0</v>
       </c>
       <c r="AS33" s="2">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AT33" s="2">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -5463,25 +5463,25 @@
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
       <c r="K34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L34" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M34" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N34" s="2">
         <v>77</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -5514,28 +5514,28 @@
         <v>5</v>
       </c>
       <c r="X34" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y34" s="2">
         <v>8</v>
       </c>
       <c r="Z34" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA34" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB34" s="2">
         <v>51</v>
       </c>
       <c r="AC34" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD34" s="2">
         <v>0</v>
       </c>
       <c r="AE34" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AF34" s="2">
         <v>5</v>
@@ -5547,40 +5547,40 @@
         <v>1</v>
       </c>
       <c r="AI34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ34" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK34" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL34" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AM34" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AN34" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AO34" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AP34" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AQ34" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="AR34" s="2">
         <v>0</v>
       </c>
       <c r="AS34" s="2">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="AT34" s="2">
-        <v>680</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="2">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="2">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF35" s="2">
         <v>0</v>
@@ -5699,28 +5699,28 @@
         <v>0</v>
       </c>
       <c r="AM35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35" s="2">
         <v>1</v>
       </c>
       <c r="AQ35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" s="2">
         <v>0</v>
       </c>
       <c r="AS35" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT35" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -5755,112 +5755,112 @@
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N36" s="2">
+        <v>11</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO36" s="2">
         <v>5</v>
       </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="2">
-        <v>6</v>
-      </c>
-      <c r="AF36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="2">
-        <v>2</v>
-      </c>
-      <c r="AL36" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO36" s="2">
-        <v>0</v>
-      </c>
       <c r="AP36" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AQ36" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AR36" s="2">
         <v>0</v>
       </c>
       <c r="AS36" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="AT36" s="2">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="2">
         <v>4</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q37" s="2">
         <v>0</v>
@@ -5934,13 +5934,13 @@
         <v>0</v>
       </c>
       <c r="X37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="2">
         <v>0</v>
       </c>
       <c r="Z37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA37" s="2">
         <v>0</v>
@@ -5949,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="AC37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD37" s="2">
         <v>0</v>
       </c>
       <c r="AE37" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF37" s="2">
         <v>0</v>
@@ -5979,28 +5979,28 @@
         <v>2</v>
       </c>
       <c r="AM37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR37" s="2">
         <v>0</v>
       </c>
       <c r="AS37" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AT37" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -6044,13 +6044,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="2">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="2">
         <v>0</v>
@@ -6089,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="AC38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD38" s="2">
         <v>0</v>
       </c>
       <c r="AE38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF38" s="2">
         <v>0</v>
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="AO38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ38" s="2">
         <v>2</v>
@@ -6137,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="AS38" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT38" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
@@ -6315,22 +6315,22 @@
         <v>2</v>
       </c>
       <c r="K40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="2">
+        <v>5</v>
+      </c>
+      <c r="M40" s="2">
         <v>4</v>
       </c>
-      <c r="M40" s="2">
-        <v>2</v>
-      </c>
       <c r="N40" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q40" s="2">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="X40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y40" s="2">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="AB40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC40" s="2">
         <v>8</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF40" s="2">
         <v>0</v>
@@ -6396,31 +6396,31 @@
         <v>6</v>
       </c>
       <c r="AL40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN40" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AO40" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AP40" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AQ40" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AR40" s="2">
         <v>0</v>
       </c>
       <c r="AS40" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="AT40" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -6443,34 +6443,34 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M41" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N41" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>8</v>
       </c>
       <c r="AB41" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC41" s="2">
         <v>28</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF41" s="2">
         <v>3</v>
@@ -6533,34 +6533,34 @@
         <v>2</v>
       </c>
       <c r="AK41" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL41" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AM41" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AN41" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AO41" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="AP41" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AQ41" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="AR41" s="2">
         <v>0</v>
       </c>
       <c r="AS41" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AT41" s="2">
-        <v>167</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -6595,13 +6595,13 @@
         <v>2</v>
       </c>
       <c r="K42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L42" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N42" s="2">
         <v>15</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -6670,37 +6670,37 @@
         <v>1</v>
       </c>
       <c r="AJ42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM42" s="2">
         <v>4</v>
       </c>
       <c r="AN42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO42" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP42" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ42" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR42" s="2">
         <v>0</v>
       </c>
       <c r="AS42" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="AT42" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z43" s="2">
         <v>1</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF43" s="2">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>19</v>
       </c>
       <c r="AT43" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="2">
         <v>1</v>
@@ -7105,22 +7105,22 @@
         <v>0</v>
       </c>
       <c r="AO45" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP45" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR45" s="2">
         <v>0</v>
       </c>
       <c r="AS45" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AT45" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7155,22 +7155,22 @@
         <v>5</v>
       </c>
       <c r="K46" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L46" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M46" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N46" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -7209,13 +7209,13 @@
         <v>11</v>
       </c>
       <c r="AC46" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD46" s="2">
         <v>0</v>
       </c>
       <c r="AE46" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF46" s="2">
         <v>0</v>
@@ -7233,34 +7233,34 @@
         <v>3</v>
       </c>
       <c r="AK46" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL46" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM46" s="2">
         <v>9</v>
       </c>
       <c r="AN46" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AO46" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AP46" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AQ46" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AR46" s="2">
         <v>0</v>
       </c>
       <c r="AS46" s="2">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="AT46" s="2">
-        <v>201</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7289,28 +7289,28 @@
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" s="2">
         <v>6</v>
       </c>
       <c r="K47" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L47" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M47" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N47" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q47" s="2">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
@@ -7340,7 +7340,7 @@
         <v>2</v>
       </c>
       <c r="Z47" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA47" s="2">
         <v>6</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF47" s="2">
         <v>1</v>
@@ -7370,37 +7370,37 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK47" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AM47" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN47" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO47" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP47" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AQ47" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR47" s="2">
         <v>0</v>
       </c>
       <c r="AS47" s="2">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="AT47" s="2">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7438,19 +7438,19 @@
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
@@ -7486,16 +7486,16 @@
         <v>1</v>
       </c>
       <c r="AB48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD48" s="2">
         <v>0</v>
       </c>
       <c r="AE48" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF48" s="2">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="AK48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL48" s="2">
         <v>4</v>
@@ -7522,25 +7522,25 @@
         <v>3</v>
       </c>
       <c r="AN48" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO48" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP48" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AQ48" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AR48" s="2">
         <v>0</v>
       </c>
       <c r="AS48" s="2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AT48" s="2">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7584,13 +7584,13 @@
         <v>1</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q49" s="2">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49" s="2">
         <v>0</v>
@@ -7662,25 +7662,25 @@
         <v>2</v>
       </c>
       <c r="AN49" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO49" s="2">
         <v>4</v>
       </c>
-      <c r="AO49" s="2">
-        <v>1</v>
-      </c>
       <c r="AP49" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ49" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR49" s="2">
         <v>0</v>
       </c>
       <c r="AS49" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AT49" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7721,16 +7721,16 @@
         <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
       </c>
       <c r="P50" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
@@ -7769,58 +7769,58 @@
         <v>4</v>
       </c>
       <c r="AC50" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM50" s="2">
+        <v>7</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO50" s="2">
         <v>5</v>
       </c>
-      <c r="AD50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="2">
-        <v>13</v>
-      </c>
-      <c r="AF50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL50" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM50" s="2">
+      <c r="AP50" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ50" s="2">
         <v>4</v>
       </c>
-      <c r="AN50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ50" s="2">
-        <v>0</v>
-      </c>
       <c r="AR50" s="2">
         <v>0</v>
       </c>
       <c r="AS50" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AT50" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7855,13 +7855,13 @@
         <v>3</v>
       </c>
       <c r="K51" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L51" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N51" s="2">
         <v>13</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="2">
         <v>0</v>
@@ -7891,76 +7891,76 @@
         <v>0</v>
       </c>
       <c r="W51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
       </c>
       <c r="Y51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51" s="2">
         <v>3</v>
       </c>
       <c r="AA51" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="2">
         <v>5</v>
       </c>
-      <c r="AB51" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC51" s="2">
+      <c r="AD51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL51" s="2">
         <v>4</v>
       </c>
-      <c r="AD51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="2">
-        <v>15</v>
-      </c>
-      <c r="AF51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL51" s="2">
-        <v>3</v>
-      </c>
       <c r="AM51" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO51" s="2">
         <v>7</v>
       </c>
-      <c r="AN51" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO51" s="2">
-        <v>2</v>
-      </c>
       <c r="AP51" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AQ51" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR51" s="2">
         <v>0</v>
       </c>
       <c r="AS51" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AT51" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -7989,10 +7989,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>2</v>
       </c>
       <c r="AL52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM52" s="2">
         <v>0</v>
@@ -8085,22 +8085,22 @@
         <v>0</v>
       </c>
       <c r="AO52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ52" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR52" s="2">
         <v>0</v>
       </c>
       <c r="AS52" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AT52" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="2">
         <v>2</v>
@@ -8132,61 +8132,61 @@
         <v>3</v>
       </c>
       <c r="J53" s="2">
+        <v>8</v>
+      </c>
+      <c r="K53" s="2">
+        <v>9</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2</v>
+      </c>
+      <c r="M53" s="2">
+        <v>11</v>
+      </c>
+      <c r="N53" s="2">
+        <v>21</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>1</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>4</v>
+      </c>
+      <c r="W53" s="2">
+        <v>6</v>
+      </c>
+      <c r="X53" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z53" s="2">
         <v>7</v>
-      </c>
-      <c r="K53" s="2">
-        <v>6</v>
-      </c>
-      <c r="L53" s="2">
-        <v>1</v>
-      </c>
-      <c r="M53" s="2">
-        <v>9</v>
-      </c>
-      <c r="N53" s="2">
-        <v>19</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>51</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>1</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2">
-        <v>3</v>
-      </c>
-      <c r="W53" s="2">
-        <v>4</v>
-      </c>
-      <c r="X53" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>6</v>
       </c>
       <c r="AA53" s="2">
         <v>8</v>
       </c>
       <c r="AB53" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC53" s="2">
         <v>24</v>
@@ -8195,13 +8195,13 @@
         <v>0</v>
       </c>
       <c r="AE53" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF53" s="2">
         <v>0</v>
       </c>
       <c r="AG53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH53" s="2">
         <v>0</v>
@@ -8210,37 +8210,37 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK53" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL53" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AM53" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AN53" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO53" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AP53" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AQ53" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AR53" s="2">
         <v>0</v>
       </c>
       <c r="AS53" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AT53" s="2">
-        <v>205</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -8275,22 +8275,22 @@
         <v>1</v>
       </c>
       <c r="K54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N54" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O54" s="2">
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z54" s="2">
         <v>1</v>
@@ -8326,7 +8326,7 @@
         <v>4</v>
       </c>
       <c r="AB54" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC54" s="2">
         <v>6</v>
@@ -8335,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="AE54" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54" s="2">
         <v>0</v>
@@ -8356,31 +8356,31 @@
         <v>4</v>
       </c>
       <c r="AL54" s="2">
+        <v>6</v>
+      </c>
+      <c r="AM54" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN54" s="2">
         <v>4</v>
       </c>
-      <c r="AM54" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN54" s="2">
-        <v>3</v>
-      </c>
       <c r="AO54" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP54" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AQ54" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR54" s="2">
         <v>0</v>
       </c>
       <c r="AS54" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AT54" s="2">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -8403,34 +8403,34 @@
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" s="2">
         <v>6</v>
       </c>
       <c r="I55" s="2">
+        <v>8</v>
+      </c>
+      <c r="J55" s="2">
         <v>5</v>
       </c>
-      <c r="J55" s="2">
-        <v>3</v>
-      </c>
       <c r="K55" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L55" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M55" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N55" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O55" s="2">
         <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="Q55" s="2">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X55" s="2">
         <v>6</v>
@@ -8460,22 +8460,22 @@
         <v>10</v>
       </c>
       <c r="Z55" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB55" s="2">
         <v>11</v>
       </c>
-      <c r="AA55" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB55" s="2">
-        <v>7</v>
-      </c>
       <c r="AC55" s="2">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AD55" s="2">
         <v>0</v>
       </c>
       <c r="AE55" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AF55" s="2">
         <v>3</v>
@@ -8484,43 +8484,43 @@
         <v>0</v>
       </c>
       <c r="AH55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ55" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK55" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AL55" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AM55" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AN55" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AO55" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AP55" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="AQ55" s="2">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="AR55" s="2">
         <v>0</v>
       </c>
       <c r="AS55" s="2">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="AT55" s="2">
-        <v>531</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -8546,31 +8546,31 @@
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
       </c>
       <c r="J56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K56" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L56" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M56" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N56" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O56" s="2">
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
@@ -8594,13 +8594,13 @@
         <v>1</v>
       </c>
       <c r="X56" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y56" s="2">
         <v>7</v>
       </c>
       <c r="Z56" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA56" s="2">
         <v>30</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AF56" s="2">
         <v>0</v>
@@ -8636,31 +8636,31 @@
         <v>11</v>
       </c>
       <c r="AL56" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM56" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN56" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AO56" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AP56" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AQ56" s="2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AR56" s="2">
         <v>0</v>
       </c>
       <c r="AS56" s="2">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="AT56" s="2">
-        <v>679</v>
+        <v>737</v>
       </c>
     </row>
     <row r="57" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -8686,31 +8686,31 @@
         <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K57" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L57" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N57" s="2">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
       </c>
       <c r="P57" s="5">
-        <v>1076</v>
+        <v>1090</v>
       </c>
       <c r="Q57" s="2">
         <v>0</v>
@@ -8743,19 +8743,19 @@
         <v>32</v>
       </c>
       <c r="AA57" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB57" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AC57" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AD57" s="2">
         <v>0</v>
       </c>
       <c r="AE57" s="5">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="AF57" s="2">
         <v>0</v>
@@ -8770,37 +8770,37 @@
         <v>2</v>
       </c>
       <c r="AJ57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK57" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL57" s="2">
         <v>35</v>
       </c>
       <c r="AM57" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AN57" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AO57" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AP57" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="AQ57" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="AR57" s="2">
         <v>0</v>
       </c>
       <c r="AS57" s="2">
-        <v>658</v>
+        <v>725</v>
       </c>
       <c r="AT57" s="5">
-        <v>2772</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="58" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -8823,13 +8823,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" s="2">
         <v>7</v>
       </c>
       <c r="I58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" s="2">
         <v>4</v>
@@ -8838,19 +8838,19 @@
         <v>10</v>
       </c>
       <c r="L58" s="2">
+        <v>7</v>
+      </c>
+      <c r="M58" s="2">
         <v>6</v>
       </c>
-      <c r="M58" s="2">
-        <v>4</v>
-      </c>
       <c r="N58" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O58" s="2">
         <v>0</v>
       </c>
       <c r="P58" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q58" s="2">
         <v>0</v>
@@ -8871,10 +8871,10 @@
         <v>3</v>
       </c>
       <c r="W58" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X58" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y58" s="2">
         <v>4</v>
@@ -8889,22 +8889,22 @@
         <v>8</v>
       </c>
       <c r="AC58" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD58" s="2">
         <v>0</v>
       </c>
       <c r="AE58" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AF58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="2">
         <v>2</v>
@@ -8913,34 +8913,34 @@
         <v>12</v>
       </c>
       <c r="AK58" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL58" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AM58" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AN58" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AO58" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AP58" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AQ58" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AR58" s="2">
         <v>0</v>
       </c>
       <c r="AS58" s="2">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="AT58" s="2">
-        <v>284</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q59" s="2">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK59" s="2">
         <v>0</v>
@@ -9059,16 +9059,16 @@
         <v>3</v>
       </c>
       <c r="AM59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN59" s="2">
         <v>4</v>
       </c>
       <c r="AO59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP59" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ59" s="2">
         <v>2</v>
@@ -9077,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="AS59" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AT59" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K60" s="2">
         <v>3</v>
@@ -9124,13 +9124,13 @@
         <v>2</v>
       </c>
       <c r="N60" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O60" s="2">
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q60" s="2">
         <v>0</v>
@@ -9154,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="X60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="2">
         <v>1</v>
@@ -9169,13 +9169,13 @@
         <v>6</v>
       </c>
       <c r="AC60" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD60" s="2">
         <v>0</v>
       </c>
       <c r="AE60" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF60" s="2">
         <v>0</v>
@@ -9193,34 +9193,34 @@
         <v>0</v>
       </c>
       <c r="AK60" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM60" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="2">
         <v>4</v>
       </c>
-      <c r="AN60" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="2">
-        <v>0</v>
-      </c>
       <c r="AP60" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AQ60" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AR60" s="2">
         <v>0</v>
       </c>
       <c r="AS60" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AT60" s="2">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -9264,103 +9264,103 @@
         <v>4</v>
       </c>
       <c r="N61" s="2">
+        <v>8</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>3</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK61" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL61" s="2">
         <v>7</v>
       </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2">
-        <v>0</v>
-      </c>
-      <c r="U61" s="2">
-        <v>0</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2">
-        <v>2</v>
-      </c>
-      <c r="X61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="2">
+      <c r="AM61" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN61" s="2">
         <v>12</v>
       </c>
-      <c r="AF61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK61" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL61" s="2">
-        <v>6</v>
-      </c>
-      <c r="AM61" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN61" s="2">
-        <v>8</v>
-      </c>
       <c r="AO61" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AP61" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ61" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR61" s="2">
         <v>0</v>
       </c>
       <c r="AS61" s="2">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AT61" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -9398,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" s="2">
         <v>3</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q62" s="2">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="AL62" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM62" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN62" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP62" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AQ62" s="2">
         <v>4</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="AS62" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AT62" s="2">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -9526,7 +9526,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
@@ -9535,22 +9535,22 @@
         <v>2</v>
       </c>
       <c r="K63" s="2">
+        <v>9</v>
+      </c>
+      <c r="L63" s="2">
         <v>6</v>
       </c>
-      <c r="L63" s="2">
-        <v>3</v>
-      </c>
       <c r="M63" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N63" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O63" s="2">
         <v>0</v>
       </c>
       <c r="P63" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="Q63" s="2">
         <v>0</v>
@@ -9574,28 +9574,28 @@
         <v>4</v>
       </c>
       <c r="X63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y63" s="2">
         <v>4</v>
       </c>
       <c r="Z63" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA63" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB63" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC63" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" s="2">
         <v>0</v>
       </c>
       <c r="AE63" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AF63" s="2">
         <v>0</v>
@@ -9616,31 +9616,31 @@
         <v>14</v>
       </c>
       <c r="AL63" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM63" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN63" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO63" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AP63" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AQ63" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AR63" s="2">
         <v>0</v>
       </c>
       <c r="AS63" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="AT63" s="2">
-        <v>370</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" s="2">
         <v>3</v>
@@ -9684,13 +9684,13 @@
         <v>4</v>
       </c>
       <c r="N64" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O64" s="2">
         <v>0</v>
       </c>
       <c r="P64" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q64" s="2">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64" s="2">
         <v>2</v>
@@ -9717,7 +9717,7 @@
         <v>3</v>
       </c>
       <c r="Y64" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z64" s="2">
         <v>2</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF64" s="2">
         <v>0</v>
@@ -9750,37 +9750,37 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="2">
         <v>4</v>
       </c>
       <c r="AL64" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM64" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN64" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO64" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP64" s="2">
         <v>3</v>
       </c>
       <c r="AQ64" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AR64" s="2">
         <v>0</v>
       </c>
       <c r="AS64" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AT64" s="2">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -9818,19 +9818,19 @@
         <v>0</v>
       </c>
       <c r="L65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N65" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O65" s="2">
         <v>0</v>
       </c>
       <c r="P65" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q65" s="2">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="AB65" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC65" s="2">
         <v>4</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF65" s="2">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="2">
         <v>1</v>
@@ -9902,25 +9902,25 @@
         <v>1</v>
       </c>
       <c r="AN65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO65" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP65" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AQ65" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AR65" s="2">
         <v>0</v>
       </c>
       <c r="AS65" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AT65" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -9964,13 +9964,13 @@
         <v>3</v>
       </c>
       <c r="N66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" s="2">
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q66" s="2">
         <v>0</v>
@@ -10039,13 +10039,13 @@
         <v>0</v>
       </c>
       <c r="AM66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP66" s="2">
         <v>0</v>
@@ -10057,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="AS66" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT66" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -10328,7 +10328,7 @@
         <v>6</v>
       </c>
       <c r="AP68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ68" s="2">
         <v>0</v>
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="AS68" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT68" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -10372,25 +10372,25 @@
         <v>2</v>
       </c>
       <c r="J69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L69" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M69" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N69" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O69" s="2">
         <v>0</v>
       </c>
       <c r="P69" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q69" s="2">
         <v>0</v>
@@ -10411,10 +10411,10 @@
         <v>0</v>
       </c>
       <c r="W69" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="2">
         <v>3</v>
@@ -10423,64 +10423,64 @@
         <v>3</v>
       </c>
       <c r="AA69" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB69" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC69" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="2">
+        <v>43</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="2">
+        <v>13</v>
+      </c>
+      <c r="AL69" s="2">
+        <v>14</v>
+      </c>
+      <c r="AM69" s="2">
         <v>12</v>
       </c>
-      <c r="AD69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="2">
-        <v>34</v>
-      </c>
-      <c r="AF69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK69" s="2">
-        <v>11</v>
-      </c>
-      <c r="AL69" s="2">
-        <v>10</v>
-      </c>
-      <c r="AM69" s="2">
+      <c r="AN69" s="2">
         <v>9</v>
       </c>
-      <c r="AN69" s="2">
-        <v>4</v>
-      </c>
       <c r="AO69" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AP69" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AQ69" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AR69" s="2">
         <v>0</v>
       </c>
       <c r="AS69" s="2">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="AT69" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="AK70" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL70" s="2">
         <v>0</v>
@@ -10611,16 +10611,16 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" s="2">
         <v>0</v>
       </c>
       <c r="AS70" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT70" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -10658,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M71" s="2">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q71" s="2">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="AA71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB71" s="2">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF71" s="2">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>2</v>
       </c>
       <c r="AM71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN71" s="2">
         <v>2</v>
@@ -10748,19 +10748,19 @@
         <v>0</v>
       </c>
       <c r="AP71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR71" s="2">
         <v>0</v>
       </c>
       <c r="AS71" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT71" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="AP72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ72" s="2">
         <v>0</v>
@@ -10897,10 +10897,10 @@
         <v>0</v>
       </c>
       <c r="AS72" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT72" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -10920,127 +10920,127 @@
         <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
         <v>5</v>
       </c>
-      <c r="I73" s="2">
-        <v>11</v>
-      </c>
-      <c r="J73" s="2">
+      <c r="Q73" s="2">
+        <v>0</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT73" s="2">
         <v>9</v>
-      </c>
-      <c r="K73" s="2">
-        <v>17</v>
-      </c>
-      <c r="L73" s="2">
-        <v>16</v>
-      </c>
-      <c r="M73" s="2">
-        <v>24</v>
-      </c>
-      <c r="N73" s="2">
-        <v>37</v>
-      </c>
-      <c r="O73" s="2">
-        <v>19</v>
-      </c>
-      <c r="P73" s="2">
-        <v>141</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2">
-        <v>0</v>
-      </c>
-      <c r="S73" s="2">
-        <v>1</v>
-      </c>
-      <c r="T73" s="2">
-        <v>0</v>
-      </c>
-      <c r="U73" s="2">
-        <v>0</v>
-      </c>
-      <c r="V73" s="2">
-        <v>3</v>
-      </c>
-      <c r="W73" s="2">
-        <v>10</v>
-      </c>
-      <c r="X73" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>12</v>
-      </c>
-      <c r="Z73" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA73" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB73" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC73" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD73" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE73" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI73" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ73" s="2">
-        <v>14</v>
-      </c>
-      <c r="AK73" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL73" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM73" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN73" s="2">
-        <v>39</v>
-      </c>
-      <c r="AO73" s="2">
-        <v>10</v>
-      </c>
-      <c r="AP73" s="2">
-        <v>17</v>
-      </c>
-      <c r="AQ73" s="2">
-        <v>28</v>
-      </c>
-      <c r="AR73" s="2">
-        <v>17</v>
-      </c>
-      <c r="AS73" s="2">
-        <v>249</v>
-      </c>
-      <c r="AT73" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:46" ht="15" x14ac:dyDescent="0.25">
@@ -11051,10 +11051,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E74" s="3">
         <v>3</v>
@@ -11063,34 +11063,34 @@
         <v>9</v>
       </c>
       <c r="G74" s="3">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H74" s="3">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I74" s="3">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J74" s="3">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K74" s="3">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="L74" s="3">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="M74" s="3">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="N74" s="6">
-        <v>1545</v>
+        <v>1638</v>
       </c>
       <c r="O74" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P74" s="6">
-        <v>3008</v>
+        <v>3279</v>
       </c>
       <c r="Q74" s="3">
         <v>1</v>
@@ -11099,88 +11099,88 @@
         <v>15</v>
       </c>
       <c r="S74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U74" s="3">
         <v>11</v>
       </c>
       <c r="V74" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W74" s="3">
         <v>82</v>
       </c>
       <c r="X74" s="3">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Y74" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Z74" s="3">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AA74" s="3">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AB74" s="3">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="AC74" s="6">
-        <v>1566</v>
+        <v>1579</v>
       </c>
       <c r="AD74" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="6">
-        <v>3301</v>
+        <v>3345</v>
       </c>
       <c r="AF74" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG74" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH74" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI74" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ74" s="3">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AK74" s="3">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="AL74" s="3">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="AM74" s="3">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="AN74" s="3">
-        <v>539</v>
+        <v>674</v>
       </c>
       <c r="AO74" s="3">
-        <v>360</v>
+        <v>634</v>
       </c>
       <c r="AP74" s="3">
-        <v>487</v>
-      </c>
-      <c r="AQ74" s="3">
-        <v>939</v>
+        <v>872</v>
+      </c>
+      <c r="AQ74" s="6">
+        <v>1402</v>
       </c>
       <c r="AR74" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AS74" s="6">
-        <v>4032</v>
+        <v>5417</v>
       </c>
       <c r="AT74" s="6">
-        <v>10341</v>
+        <v>12041</v>
       </c>
     </row>
   </sheetData>
